--- a/content/research/Negation/Supporting_Information/Negation_Design.xlsx
+++ b/content/research/Negation/Supporting_Information/Negation_Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzhan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzhan/Documents/ADMIN/Website/sapere-aude/content/research/Negation/Supporting_Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB7786-8F69-444C-BA59-25631C42D119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388F4590-AC08-7A43-847D-59A0CB2ABA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{B0A98C2B-60E4-3E4D-A009-C6E7C9FE9ABF}"/>
   </bookViews>
@@ -148,22 +148,22 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Participant_Perspective_Left</t>
-  </si>
-  <si>
-    <t>Participant_Perspective_Right</t>
-  </si>
-  <si>
-    <t>Agent_Perspective_Left</t>
-  </si>
-  <si>
-    <t>Agent_Perspective_Right</t>
-  </si>
-  <si>
-    <t>Box_Color_Left</t>
-  </si>
-  <si>
-    <t>Box_Color_Right</t>
+    <t>Left_Box_Participant_Perspective</t>
+  </si>
+  <si>
+    <t>Right_Box_Participant_Perspective</t>
+  </si>
+  <si>
+    <t>Left_Box_Agent_Perspective</t>
+  </si>
+  <si>
+    <t>Right_Box_Agent_Perspective</t>
+  </si>
+  <si>
+    <t>Left_Box_Color</t>
+  </si>
+  <si>
+    <t>Right_Box_Color</t>
   </si>
 </sst>
 </file>
@@ -518,17 +518,17 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>

--- a/content/research/Negation/Supporting_Information/Negation_Design.xlsx
+++ b/content/research/Negation/Supporting_Information/Negation_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzhan/Documents/ADMIN/Website/sapere-aude/content/research/Negation/Supporting_Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388F4590-AC08-7A43-847D-59A0CB2ABA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E682AC-82C9-BE4C-BA53-33ADEEF4D988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{B0A98C2B-60E4-3E4D-A009-C6E7C9FE9ABF}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -518,18 +518,18 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
@@ -539,25 +539,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>34</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -592,28 +592,28 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
@@ -621,69 +621,69 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
@@ -703,10 +703,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -715,77 +715,77 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
         <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -794,16 +794,16 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -815,59 +815,59 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
         <v>3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -876,16 +876,16 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -900,7 +900,7 @@
         <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M9" t="s">
         <v>4</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -917,16 +917,16 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -935,13 +935,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="s">
         <v>2</v>
@@ -949,89 +949,89 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
         <v>5</v>
-      </c>
-      <c r="M11" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1043,36 +1043,36 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
         <v>4</v>
-      </c>
-      <c r="M13" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1081,121 +1081,121 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
         <v>5</v>
-      </c>
-      <c r="M15" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1207,13 +1207,13 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
@@ -1236,9 +1236,9 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M17">
-    <sortCondition ref="A2:A17"/>
+    <sortCondition ref="F2:F17"/>
+    <sortCondition ref="G2:G17"/>
     <sortCondition ref="B2:B17"/>
-    <sortCondition ref="C2:C17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/content/research/Negation/Supporting_Information/Negation_Design.xlsx
+++ b/content/research/Negation/Supporting_Information/Negation_Design.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzhan/Documents/ADMIN/Website/sapere-aude/content/research/Negation/Supporting_Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3BC86-BE97-7E40-8B2D-8F1CA7B7CBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3DAA94-62BF-6246-98DD-49F75CE47ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{B0A98C2B-60E4-3E4D-A009-C6E7C9FE9ABF}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{B0A98C2B-60E4-3E4D-A009-C6E7C9FE9ABF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Participant-Fixed" sheetId="1" r:id="rId1"/>
+    <sheet name="Agent-Fixed" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agent-Fixed'!$A$1:$K$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant-Fixed'!$A$1:$K$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="33">
   <si>
     <t>Number</t>
   </si>
@@ -495,7 +496,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
@@ -1068,7 +1069,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K17" xr:uid="{4904F1B0-5CF9-AF4C-A2E3-89F5722E7CEC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H17">
     <sortCondition ref="C2:C17"/>
     <sortCondition ref="D2:D17"/>
@@ -1080,15 +1080,583 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEBE883-7003-3546-8AC7-EA50FB7A8E29}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856511-DD36-AA45-8058-C4B1C837422E}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>CONCATENATE(MID(D2,1,1),MID(E2,1,1),"|",MID(G2,1,1),MID(H2,1,1))</f>
+        <v>OT|OT</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:B17" si="0">CONCATENATE(MID(D3,1,1),MID(E3,1,1),"|",MID(G3,1,1),MID(H3,1,1))</f>
+        <v>OT|TO</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TO|OT</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TO|TO</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OT|OO</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TO|OO</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OT|TT</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TO|TT</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OO|OT</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OO|TO</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OO|OO</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OO|TT</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TT|OT</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TT|TO</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TT|OO</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TT|TT</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/content/research/Negation/Supporting_Information/Negation_Design.xlsx
+++ b/content/research/Negation/Supporting_Information/Negation_Design.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzhan/Documents/ADMIN/Website/sapere-aude/content/research/Negation/Supporting_Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3DAA94-62BF-6246-98DD-49F75CE47ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3C9715-8989-834B-A47C-37BE70DD0375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{B0A98C2B-60E4-3E4D-A009-C6E7C9FE9ABF}"/>
+    <workbookView xWindow="5060" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{B0A98C2B-60E4-3E4D-A009-C6E7C9FE9ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant-Fixed" sheetId="1" r:id="rId1"/>
-    <sheet name="Agent-Fixed" sheetId="3" r:id="rId2"/>
+    <sheet name="Object-2-Design" sheetId="4" r:id="rId2"/>
+    <sheet name="15Objs-2-15Trials" sheetId="5" r:id="rId3"/>
+    <sheet name="Agent-Fixed" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agent-Fixed'!$A$1:$K$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Agent-Fixed'!$A$1:$K$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Object-2-Design'!$A$1:$F$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant-Fixed'!$A$1:$K$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="89">
   <si>
     <t>Number</t>
   </si>
@@ -129,13 +132,181 @@
   </si>
   <si>
     <t>Pilot</t>
+  </si>
+  <si>
+    <t>Left_Object</t>
+  </si>
+  <si>
+    <t>Right_Object</t>
+  </si>
+  <si>
+    <t>Intend_Choice</t>
+  </si>
+  <si>
+    <t>Ex1</t>
+  </si>
+  <si>
+    <t>OO|OO</t>
+  </si>
+  <si>
+    <t>Object_1</t>
+  </si>
+  <si>
+    <t>Object_2</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>OO|TT</t>
+  </si>
+  <si>
+    <t>Object_3</t>
+  </si>
+  <si>
+    <t>TT|TT</t>
+  </si>
+  <si>
+    <t>Ex2</t>
+  </si>
+  <si>
+    <t>TO|TO</t>
+  </si>
+  <si>
+    <t>TO|TT</t>
+  </si>
+  <si>
+    <t>Ex3</t>
+  </si>
+  <si>
+    <t>OT|TT</t>
+  </si>
+  <si>
+    <t>OO|TO</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>TT|OO</t>
+  </si>
+  <si>
+    <t>TT|TO</t>
+  </si>
+  <si>
+    <t>TT|OT</t>
+  </si>
+  <si>
+    <t>TO|OO</t>
+  </si>
+  <si>
+    <t>Object_6</t>
+  </si>
+  <si>
+    <t>Object_5</t>
+  </si>
+  <si>
+    <t>Object_4</t>
+  </si>
+  <si>
+    <t>Object1</t>
+  </si>
+  <si>
+    <t>Object2</t>
+  </si>
+  <si>
+    <t>Object3</t>
+  </si>
+  <si>
+    <t>Object4</t>
+  </si>
+  <si>
+    <t>Object5</t>
+  </si>
+  <si>
+    <t>Object6</t>
+  </si>
+  <si>
+    <t>Object7</t>
+  </si>
+  <si>
+    <t>Object8</t>
+  </si>
+  <si>
+    <t>Object9</t>
+  </si>
+  <si>
+    <t>Object10</t>
+  </si>
+  <si>
+    <t>Object11</t>
+  </si>
+  <si>
+    <t>Object12</t>
+  </si>
+  <si>
+    <t>Object13</t>
+  </si>
+  <si>
+    <t>Object14</t>
+  </si>
+  <si>
+    <t>Object15</t>
+  </si>
+  <si>
+    <t>Trial1</t>
+  </si>
+  <si>
+    <t>Trial2</t>
+  </si>
+  <si>
+    <t>Trial3</t>
+  </si>
+  <si>
+    <t>Trial4</t>
+  </si>
+  <si>
+    <t>Trial5</t>
+  </si>
+  <si>
+    <t>Trial6</t>
+  </si>
+  <si>
+    <t>Trial7</t>
+  </si>
+  <si>
+    <t>Trial8</t>
+  </si>
+  <si>
+    <t>Trial9</t>
+  </si>
+  <si>
+    <t>Trial10</t>
+  </si>
+  <si>
+    <t>Trial11</t>
+  </si>
+  <si>
+    <t>Trial12</t>
+  </si>
+  <si>
+    <t>Trial13</t>
+  </si>
+  <si>
+    <t>Trial14</t>
+  </si>
+  <si>
+    <t>Trial15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,16 +325,39 @@
       <color theme="1"/>
       <name val="Fira Code Regular"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Fira Code"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,14 +365,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F126AEBB-DBBD-B44E-BB83-751703B13DCA}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
@@ -611,9 +823,6 @@
       <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -1080,6 +1289,763 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD547F-BA8C-374A-9684-94DE9FFADE75}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
+    <sortCondition ref="A2:A19"/>
+    <sortCondition ref="F2:F19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5995ADF4-6BE3-4E4A-BA14-81FD66ED4951}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856511-DD36-AA45-8058-C4B1C837422E}">
   <dimension ref="A1:K17"/>
   <sheetViews>
